--- a/data/trans_bre/P36B14_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Habitat-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,54</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,62%</t>
         </is>
       </c>
     </row>
@@ -609,29 +609,29 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 11,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 16,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,09; 14,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 23,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,45%</t>
         </is>
       </c>
     </row>
@@ -669,29 +669,29 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,65; 3,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,87; 11,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,99; 3,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 17,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,37%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 6,87</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 8,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,02; 8,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,03; 12,83</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 4,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 14,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,16; 5,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,92; 19,64</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,86%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,72; 7,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,32; 10,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 8,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,23; 15,7</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,95%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,64; 4,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,26; 8,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 4,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,45; 12,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 11,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 16,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 14,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 23,48</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 3,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 11,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 3,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 17,25</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 8,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 8,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 12,83</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,69%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 19,64</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 10,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 8,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 15,7</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 4,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,26; 8,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 4,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 12,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B14_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P36B14_R-Habitat-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -631,7 +631,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -691,7 +691,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -869,74 +869,14 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -945,7 +885,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
